--- a/biology/Biochimie/Brij_35/Brij_35.xlsx
+++ b/biology/Biochimie/Brij_35/Brij_35.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Brij-35 ou polyoxyéthylèneglycol dodécyl éther est un détergent non ionique, communément utilisé dans les applications HPLC.
 Il est également utilisé dans les préparations de tampons pour essais enzymatiques (compatible avec l'essai protéique BSA et absorbe les UV à 280 nm), il limite les liaisons non spécifiques dans les gels-filtrations et chromatographies d'affinité.
